--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value120.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value120.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.020275488990231</v>
+        <v>0.6792637705802917</v>
       </c>
       <c r="B1">
-        <v>1.796473509450077</v>
+        <v>3.302244901657104</v>
       </c>
       <c r="C1">
-        <v>4.223927233098202</v>
+        <v>2.791783571243286</v>
       </c>
       <c r="D1">
-        <v>2.456976130913141</v>
+        <v>1.053259134292603</v>
       </c>
       <c r="E1">
-        <v>1.007874681142693</v>
+        <v>1.016553401947021</v>
       </c>
     </row>
   </sheetData>
